--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156316.8751714225</v>
+        <v>156316.8751714223</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19987265.17298528</v>
+        <v>19987265.1729853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4498819.183305227</v>
+        <v>4498819.183305226</v>
       </c>
     </row>
     <row r="11">
@@ -1148,46 +1148,46 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.810057396252972</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>49.79500702712468</v>
       </c>
-      <c r="I8" t="n">
+      <c r="S8" t="n">
         <v>49.79500702712468</v>
       </c>
-      <c r="J8" t="n">
-        <v>45.63689302957772</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.006370205582207</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.03819881178228295</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="G9" t="n">
-        <v>47.46550215303134</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H9" t="n">
         <v>49.79500702712468</v>
       </c>
       <c r="I9" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.18894706358476</v>
+        <v>12.84193026251988</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>45.73793391769357</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>131.4600546760548</v>
+        <v>39.61451255043811</v>
       </c>
       <c r="J11" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9757828529239987</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R11" t="n">
         <v>86.83958259249187</v>
       </c>
       <c r="S11" t="n">
-        <v>144.6751566710422</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>144.6751566710422</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>93.890977023327</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>144.6751566710422</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.23168261818574</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.59326173053482</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>26.60493364713346</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>11.084212578217</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>8.508606056834793</v>
       </c>
       <c r="P13" t="n">
-        <v>11.08421257821695</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>45.73793391769365</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>131.4600546760548</v>
+        <v>33.4986147756302</v>
       </c>
       <c r="J14" t="n">
-        <v>7.091680627731961</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>86.83958259249187</v>
@@ -1661,7 +1661,7 @@
         <v>144.6751566710423</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E15" t="n">
-        <v>117.1226596415127</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F15" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2469034849667</v>
+        <v>127.429877995854</v>
       </c>
       <c r="H15" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>19.59281863505174</v>
+        <v>11.084212578217</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.73793391769377</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>131.4600546760548</v>
+        <v>32.5228319227063</v>
       </c>
       <c r="J17" t="n">
-        <v>7.091680627731961</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9757828529239987</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R17" t="n">
         <v>86.83958259249187</v>
@@ -1898,7 +1898,7 @@
         <v>144.6751566710423</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>135.8581311819297</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H18" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.78541323081907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>19.5928186350518</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>139.6691971379177</v>
+      </c>
+      <c r="G20" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="D20" t="n">
-        <v>40.59029540336213</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R20" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T20" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,70 +2157,70 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>127.429877995854</v>
+      </c>
+      <c r="T21" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>127.4298779958541</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W21" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>19.5928186350518</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,67 +2315,67 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
+        <v>127.4298779958541</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>140.6449799908417</v>
-      </c>
-      <c r="I23" t="n">
-        <v>131.4600546760547</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.6751566710423</v>
+        <v>127.429877995854</v>
       </c>
       <c r="C24" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="D24" t="n">
-        <v>49.83661626531924</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.59326173053482</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>19.5928186350518</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>127.4298779958541</v>
       </c>
       <c r="I26" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="T26" t="n">
-        <v>53.80539739834972</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="27">
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.78541323081918</v>
       </c>
       <c r="S27" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>144.6751566710423</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>19.5928186350518</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>33.49861477563017</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S29" t="n">
         <v>144.6751566710423</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>127.429877995854</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W29" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.869462106716679</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I30" t="n">
-        <v>26.60493364713352</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J30" t="n">
-        <v>23.23168261818573</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.59326173053482</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="T30" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="U30" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>11.08421257821694</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,28 +3029,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="G32" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>120.3381973681222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>127.4298779958541</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>127.429877995854</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="V33" t="n">
+      <c r="Y33" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="W33" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>19.59281863505183</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>19.59281863505183</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C35" t="n">
         <v>144.6751566710423</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>127.429877995854</v>
+        <v>119.3624145151981</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U36" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.59281863505183</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>19.59281863505183</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E38" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="G38" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>126.4540951429299</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.8581311819297</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>127.4298779958539</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.5928186350518</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>19.59281863505183</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>126.45409514293</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W41" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>26.60493364713346</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>49.83661626531919</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>77.59326173053482</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>19.59281863505183</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.5928186350518</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>126.45409514293</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F44" t="n">
-        <v>32.52283192270619</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G44" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0.9757828529239703</v>
       </c>
       <c r="R44" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,22 +4062,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>10.98198379870911</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>23.23168261818573</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>144.6751566710423</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
     </row>
     <row r="46">
@@ -4171,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>11.084212578217</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>19.5928186350518</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H8" t="n">
-        <v>106.4464998170029</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I8" t="n">
-        <v>56.14851292091738</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J8" t="n">
-        <v>10.05064117386917</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K8" t="n">
         <v>3.983600562169975</v>
@@ -4820,34 +4820,34 @@
         <v>156.7444867130885</v>
       </c>
       <c r="P8" t="n">
-        <v>156.7444867130885</v>
+        <v>154.9161459087925</v>
       </c>
       <c r="Q8" t="n">
-        <v>156.7444867130885</v>
+        <v>154.9161459087925</v>
       </c>
       <c r="R8" t="n">
-        <v>156.7444867130885</v>
+        <v>104.618159012707</v>
       </c>
       <c r="S8" t="n">
-        <v>156.7444867130885</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="T8" t="n">
-        <v>156.7444867130885</v>
+        <v>4.022185220535917</v>
       </c>
       <c r="U8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="V8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y8" t="n">
-        <v>156.7444867130885</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="C9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="D9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="E9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="F9" t="n">
-        <v>199.1800281084987</v>
+        <v>117.5512210841591</v>
       </c>
       <c r="G9" t="n">
-        <v>151.2350764387701</v>
+        <v>67.25323418807358</v>
       </c>
       <c r="H9" t="n">
-        <v>100.9370895426846</v>
+        <v>16.95524729198804</v>
       </c>
       <c r="I9" t="n">
-        <v>50.63910264659904</v>
+        <v>16.95524729198804</v>
       </c>
       <c r="J9" t="n">
         <v>3.983600562169975</v>
@@ -4887,7 +4887,7 @@
         <v>3.983600562169975</v>
       </c>
       <c r="L9" t="n">
-        <v>22.5489608811108</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M9" t="n">
         <v>71.84601783796424</v>
@@ -4902,31 +4902,31 @@
         <v>199.1800281084987</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="R9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="S9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="T9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="U9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="V9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="W9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="X9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.1800281084987</v>
+        <v>167.8492079802447</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="C11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="E11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="F11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="G11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="H11" t="n">
-        <v>151.5252603152861</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="I11" t="n">
-        <v>18.7373262990692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J11" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K11" t="n">
-        <v>51.79022575657154</v>
+        <v>51.79022575657172</v>
       </c>
       <c r="L11" t="n">
-        <v>138.5837562783349</v>
+        <v>138.5837562783354</v>
       </c>
       <c r="M11" t="n">
-        <v>266.8277197508547</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N11" t="n">
-        <v>401.7606130061288</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O11" t="n">
-        <v>515.8386566132573</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P11" t="n">
-        <v>578.7006266841689</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q11" t="n">
-        <v>577.7149874387911</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R11" t="n">
-        <v>489.998237345365</v>
+        <v>489.9982373453652</v>
       </c>
       <c r="S11" t="n">
-        <v>343.8617154554233</v>
+        <v>489.9982373453652</v>
       </c>
       <c r="T11" t="n">
-        <v>197.7251935654817</v>
+        <v>343.8617154554235</v>
       </c>
       <c r="U11" t="n">
-        <v>197.7251935654817</v>
+        <v>197.7251935654818</v>
       </c>
       <c r="V11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="W11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="X11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
       <c r="Y11" t="n">
-        <v>197.7251935654817</v>
+        <v>51.58867167554007</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="C12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="D12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="E12" t="n">
-        <v>483.8612559535356</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="F12" t="n">
-        <v>337.7247340635939</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="G12" t="n">
-        <v>200.1015992302943</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="H12" t="n">
-        <v>97.4304226999561</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="I12" t="n">
-        <v>35.04035861265888</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="J12" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K12" t="n">
-        <v>50.41925783498755</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L12" t="n">
-        <v>148.9740250987618</v>
+        <v>109.2973021166361</v>
       </c>
       <c r="M12" t="n">
-        <v>243.6629351576684</v>
+        <v>243.6629351576686</v>
       </c>
       <c r="N12" t="n">
-        <v>386.8913402620003</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O12" t="n">
-        <v>504.0242257254405</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P12" t="n">
-        <v>578.7006266841689</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q12" t="n">
-        <v>578.7006266841689</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R12" t="n">
-        <v>578.7006266841689</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="S12" t="n">
-        <v>578.7006266841689</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="T12" t="n">
-        <v>578.7006266841689</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="U12" t="n">
-        <v>578.7006266841689</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="V12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="W12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="X12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
       <c r="Y12" t="n">
-        <v>578.7006266841689</v>
+        <v>35.04035861265887</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="C13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="D13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="E13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="F13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="G13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="H13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="I13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="J13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="K13" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="L13" t="n">
-        <v>13.35570305153742</v>
+        <v>13.35570305153745</v>
       </c>
       <c r="M13" t="n">
-        <v>18.49252890534888</v>
+        <v>18.49252890534892</v>
       </c>
       <c r="N13" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="O13" t="n">
-        <v>22.77018685511464</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="P13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="R13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="S13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="T13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="U13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="V13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="W13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="X13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.57401253368338</v>
+        <v>22.7701868551147</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="C14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="D14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="E14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="F14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="G14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="H14" t="n">
-        <v>151.5252603152861</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="I14" t="n">
-        <v>18.7373262990692</v>
+        <v>18.73732629906917</v>
       </c>
       <c r="J14" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K14" t="n">
-        <v>51.79022575657167</v>
+        <v>51.79022575657172</v>
       </c>
       <c r="L14" t="n">
-        <v>138.5837562783352</v>
+        <v>138.5837562783354</v>
       </c>
       <c r="M14" t="n">
-        <v>266.827719750855</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N14" t="n">
-        <v>401.7606130061289</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O14" t="n">
-        <v>515.8386566132574</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P14" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q14" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R14" t="n">
-        <v>489.9982373453651</v>
+        <v>490.983876590743</v>
       </c>
       <c r="S14" t="n">
-        <v>343.8617154554235</v>
+        <v>344.8473547008013</v>
       </c>
       <c r="T14" t="n">
-        <v>197.7251935654818</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="U14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="V14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="W14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="X14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="Y14" t="n">
-        <v>197.7251935654818</v>
+        <v>52.57431092091787</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D15" t="n">
-        <v>578.700626684169</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="E15" t="n">
-        <v>460.3949098745602</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2583879846185</v>
+        <v>140.291061014344</v>
       </c>
       <c r="G15" t="n">
-        <v>176.6352531513188</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H15" t="n">
-        <v>73.96407662098059</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I15" t="n">
         <v>11.57401253368338</v>
@@ -5358,49 +5358,49 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K15" t="n">
-        <v>50.41925783498755</v>
+        <v>50.41925783498759</v>
       </c>
       <c r="L15" t="n">
-        <v>148.9740250987618</v>
+        <v>148.9740250987619</v>
       </c>
       <c r="M15" t="n">
-        <v>283.3396581397943</v>
+        <v>283.3396581397944</v>
       </c>
       <c r="N15" t="n">
-        <v>386.8913402620004</v>
+        <v>426.5680632441263</v>
       </c>
       <c r="O15" t="n">
-        <v>504.0242257254406</v>
+        <v>543.7009487075666</v>
       </c>
       <c r="P15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y15" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="C16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="D16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="E16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="F16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="G16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="H16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="I16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="J16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="K16" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="L16" t="n">
-        <v>13.35570305153742</v>
+        <v>13.35570305153745</v>
       </c>
       <c r="M16" t="n">
-        <v>18.49252890534889</v>
+        <v>18.49252890534892</v>
       </c>
       <c r="N16" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="O16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="P16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="R16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="S16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="T16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="U16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="V16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="W16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="X16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.36473842767504</v>
+        <v>22.7701868551147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="C17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="D17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="E17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="F17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="G17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="H17" t="n">
-        <v>151.5252603152861</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="I17" t="n">
-        <v>18.7373262990692</v>
+        <v>18.73732629906917</v>
       </c>
       <c r="J17" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K17" t="n">
-        <v>51.79022575657168</v>
+        <v>51.79022575657169</v>
       </c>
       <c r="L17" t="n">
         <v>138.5837562783352</v>
@@ -5528,16 +5528,16 @@
         <v>401.7606130061291</v>
       </c>
       <c r="O17" t="n">
-        <v>515.8386566132575</v>
+        <v>515.8386566132576</v>
       </c>
       <c r="P17" t="n">
-        <v>578.7006266841692</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="Q17" t="n">
-        <v>577.7149874387914</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="R17" t="n">
-        <v>489.9982373453652</v>
+        <v>489.9982373453653</v>
       </c>
       <c r="S17" t="n">
         <v>343.8617154554236</v>
@@ -5546,19 +5546,19 @@
         <v>197.7251935654819</v>
       </c>
       <c r="U17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="V17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="W17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="X17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
       <c r="Y17" t="n">
-        <v>197.7251935654819</v>
+        <v>51.58867167554018</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D18" t="n">
-        <v>114.2451890640216</v>
+        <v>441.4701911468665</v>
       </c>
       <c r="E18" t="n">
-        <v>114.2451890640216</v>
+        <v>295.3336692569247</v>
       </c>
       <c r="F18" t="n">
-        <v>114.2451890640216</v>
+        <v>149.197147366983</v>
       </c>
       <c r="G18" t="n">
-        <v>114.2451890640216</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H18" t="n">
         <v>11.57401253368338</v>
@@ -5595,49 +5595,49 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K18" t="n">
-        <v>50.41925783498755</v>
+        <v>50.41925783498759</v>
       </c>
       <c r="L18" t="n">
-        <v>148.9740250987618</v>
+        <v>148.9740250987619</v>
       </c>
       <c r="M18" t="n">
-        <v>243.6629351576685</v>
+        <v>243.6629351576686</v>
       </c>
       <c r="N18" t="n">
         <v>386.8913402620004</v>
       </c>
       <c r="O18" t="n">
-        <v>504.0242257254406</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P18" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q18" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R18" t="n">
-        <v>552.6547547338467</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S18" t="n">
-        <v>406.518232843905</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T18" t="n">
-        <v>260.3817109539633</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.2451890640216</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C19" t="n">
         <v>11.57401253368338</v>
@@ -5677,46 +5677,46 @@
         <v>11.57401253368338</v>
       </c>
       <c r="L19" t="n">
-        <v>13.35570305153742</v>
+        <v>13.35570305153745</v>
       </c>
       <c r="M19" t="n">
-        <v>18.49252890534889</v>
+        <v>18.49252890534892</v>
       </c>
       <c r="N19" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="O19" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="P19" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="R19" t="n">
-        <v>31.36473842767504</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="S19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="T19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="U19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.36473842767504</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>198.7108328108596</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="C20" t="n">
-        <v>52.57431092091787</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="D20" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="E20" t="n">
-        <v>11.57401253368339</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="F20" t="n">
-        <v>11.57401253368339</v>
+        <v>290.498468439842</v>
       </c>
       <c r="G20" t="n">
-        <v>11.57401253368339</v>
+        <v>144.3619465499003</v>
       </c>
       <c r="H20" t="n">
-        <v>11.57401253368339</v>
+        <v>144.3619465499003</v>
       </c>
       <c r="I20" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J20" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K20" t="n">
-        <v>51.79022575657168</v>
+        <v>51.79022575657169</v>
       </c>
       <c r="L20" t="n">
         <v>138.5837562783352</v>
@@ -5771,31 +5771,31 @@
         <v>578.7006266841693</v>
       </c>
       <c r="Q20" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="R20" t="n">
-        <v>490.9838765907431</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="S20" t="n">
-        <v>490.9838765907431</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="T20" t="n">
-        <v>344.8473547008014</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="U20" t="n">
-        <v>198.7108328108596</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="V20" t="n">
-        <v>198.7108328108596</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="W20" t="n">
-        <v>198.7108328108596</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="X20" t="n">
-        <v>198.7108328108596</v>
+        <v>431.5784655488497</v>
       </c>
       <c r="Y20" t="n">
-        <v>198.7108328108596</v>
+        <v>431.5784655488497</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C21" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D21" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E21" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F21" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G21" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H21" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I21" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J21" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K21" t="n">
         <v>50.41925783498759</v>
@@ -5838,43 +5838,43 @@
         <v>148.9740250987619</v>
       </c>
       <c r="M21" t="n">
-        <v>243.6629351576686</v>
+        <v>283.3396581397944</v>
       </c>
       <c r="N21" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441263</v>
       </c>
       <c r="O21" t="n">
-        <v>504.0242257254408</v>
+        <v>543.7009487075666</v>
       </c>
       <c r="P21" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q21" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R21" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S21" t="n">
-        <v>578.7006266841693</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="T21" t="n">
-        <v>578.7006266841693</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="U21" t="n">
-        <v>432.5641047942275</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="V21" t="n">
-        <v>432.5641047942275</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W21" t="n">
-        <v>286.4275829042858</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X21" t="n">
-        <v>286.4275829042858</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y21" t="n">
-        <v>286.4275829042858</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L22" t="n">
         <v>13.35570305153745</v>
@@ -5941,19 +5941,19 @@
         <v>31.3647384276751</v>
       </c>
       <c r="U22" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V22" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>432.5641047942275</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="C23" t="n">
         <v>286.4275829042858</v>
@@ -5975,19 +5975,19 @@
         <v>286.4275829042858</v>
       </c>
       <c r="F23" t="n">
-        <v>286.4275829042858</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="G23" t="n">
-        <v>286.4275829042858</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H23" t="n">
-        <v>144.3619465499003</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I23" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J23" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K23" t="n">
         <v>51.79022575657169</v>
@@ -6020,19 +6020,19 @@
         <v>578.7006266841693</v>
       </c>
       <c r="U23" t="n">
-        <v>578.7006266841693</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="V23" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="W23" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="X23" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="Y23" t="n">
-        <v>578.7006266841693</v>
+        <v>286.4275829042858</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>208.0505508532405</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C24" t="n">
-        <v>61.91402896329879</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J24" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K24" t="n">
         <v>50.41925783498759</v>
@@ -6078,40 +6078,40 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N24" t="n">
-        <v>386.8913402620005</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O24" t="n">
-        <v>504.0242257254408</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P24" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q24" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R24" t="n">
-        <v>500.323594633124</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S24" t="n">
-        <v>354.1870727431823</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T24" t="n">
-        <v>354.1870727431823</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="U24" t="n">
-        <v>354.1870727431823</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="V24" t="n">
-        <v>354.1870727431823</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="W24" t="n">
-        <v>354.1870727431823</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="X24" t="n">
-        <v>354.1870727431823</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="Y24" t="n">
-        <v>354.1870727431823</v>
+        <v>286.4275829042857</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L25" t="n">
         <v>13.35570305153745</v>
@@ -6172,25 +6172,25 @@
         <v>31.3647384276751</v>
       </c>
       <c r="S25" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="T25" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="U25" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="V25" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="W25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="C26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="D26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="E26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="F26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="G26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
       <c r="H26" t="n">
-        <v>144.3619465499003</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I26" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J26" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K26" t="n">
         <v>51.79022575657169</v>
@@ -6248,28 +6248,28 @@
         <v>578.7006266841693</v>
       </c>
       <c r="R26" t="n">
-        <v>490.9838765907431</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="S26" t="n">
-        <v>344.8473547008014</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="T26" t="n">
-        <v>290.498468439842</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="U26" t="n">
-        <v>290.498468439842</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="V26" t="n">
-        <v>144.3619465499003</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="W26" t="n">
-        <v>144.3619465499003</v>
+        <v>432.5641047942275</v>
       </c>
       <c r="X26" t="n">
-        <v>144.3619465499003</v>
+        <v>286.4275829042858</v>
       </c>
       <c r="Y26" t="n">
-        <v>144.3619465499003</v>
+        <v>140.2910610143441</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
       <c r="C27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
       <c r="D27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
       <c r="E27" t="n">
-        <v>11.57401253368339</v>
+        <v>260.3817109539633</v>
       </c>
       <c r="F27" t="n">
-        <v>11.57401253368339</v>
+        <v>114.2451890640216</v>
       </c>
       <c r="G27" t="n">
-        <v>11.57401253368339</v>
+        <v>114.2451890640216</v>
       </c>
       <c r="H27" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I27" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J27" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K27" t="n">
         <v>50.41925783498759</v>
@@ -6315,40 +6315,40 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N27" t="n">
-        <v>386.8913402620005</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O27" t="n">
-        <v>504.0242257254408</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P27" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q27" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R27" t="n">
-        <v>578.7006266841693</v>
+        <v>552.6547547338467</v>
       </c>
       <c r="S27" t="n">
-        <v>449.9835782035086</v>
+        <v>552.6547547338467</v>
       </c>
       <c r="T27" t="n">
-        <v>303.8470563135669</v>
+        <v>552.6547547338467</v>
       </c>
       <c r="U27" t="n">
-        <v>157.7105344236251</v>
+        <v>552.6547547338467</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
       <c r="W27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
       <c r="X27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.57401253368339</v>
+        <v>406.518232843905</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L28" t="n">
         <v>13.35570305153745</v>
@@ -6421,13 +6421,13 @@
         <v>31.3647384276751</v>
       </c>
       <c r="W28" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="X28" t="n">
-        <v>11.57401253368339</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="C29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="D29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="E29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="F29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="G29" t="n">
-        <v>11.57401253368339</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="H29" t="n">
-        <v>11.57401253368339</v>
+        <v>52.57431092091787</v>
       </c>
       <c r="I29" t="n">
-        <v>11.57401253368339</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J29" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K29" t="n">
         <v>51.79022575657168</v>
@@ -6476,37 +6476,37 @@
         <v>401.7606130061291</v>
       </c>
       <c r="O29" t="n">
-        <v>515.8386566132576</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P29" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q29" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R29" t="n">
-        <v>578.7006266841693</v>
+        <v>490.983876590743</v>
       </c>
       <c r="S29" t="n">
-        <v>432.5641047942275</v>
+        <v>344.8473547008013</v>
       </c>
       <c r="T29" t="n">
-        <v>432.5641047942275</v>
+        <v>344.8473547008013</v>
       </c>
       <c r="U29" t="n">
-        <v>432.5641047942275</v>
+        <v>344.8473547008013</v>
       </c>
       <c r="V29" t="n">
-        <v>303.8470563135669</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="W29" t="n">
-        <v>157.7105344236251</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="X29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.57401253368339</v>
+        <v>198.7108328108596</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.91402896329879</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="C30" t="n">
-        <v>61.91402896329879</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="D30" t="n">
-        <v>61.91402896329879</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="E30" t="n">
-        <v>61.91402896329879</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="F30" t="n">
-        <v>61.91402896329879</v>
+        <v>208.0505508532405</v>
       </c>
       <c r="G30" t="n">
-        <v>61.91402896329879</v>
+        <v>200.1015992302943</v>
       </c>
       <c r="H30" t="n">
-        <v>61.91402896329879</v>
+        <v>97.4304226999561</v>
       </c>
       <c r="I30" t="n">
-        <v>35.04035861265887</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="J30" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K30" t="n">
-        <v>50.41925783498759</v>
+        <v>50.41925783498756</v>
       </c>
       <c r="L30" t="n">
-        <v>148.9740250987619</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M30" t="n">
-        <v>283.3396581397944</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N30" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441262</v>
       </c>
       <c r="O30" t="n">
-        <v>504.0242257254408</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P30" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q30" t="n">
-        <v>578.7006266841693</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R30" t="n">
-        <v>500.323594633124</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="S30" t="n">
-        <v>354.1870727431823</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="T30" t="n">
-        <v>208.0505508532405</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="U30" t="n">
-        <v>61.91402896329879</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="V30" t="n">
-        <v>61.91402896329879</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="W30" t="n">
-        <v>61.91402896329879</v>
+        <v>500.3235946331239</v>
       </c>
       <c r="X30" t="n">
-        <v>61.91402896329879</v>
+        <v>354.1870727431822</v>
       </c>
       <c r="Y30" t="n">
-        <v>61.91402896329879</v>
+        <v>354.1870727431822</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L31" t="n">
-        <v>13.35570305153745</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M31" t="n">
-        <v>18.49252890534892</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N31" t="n">
-        <v>31.3647384276751</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O31" t="n">
-        <v>31.3647384276751</v>
+        <v>22.77018685511464</v>
       </c>
       <c r="P31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="R31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3647384276751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="T31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="U31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.57401253368339</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>311.0103700789526</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="C32" t="n">
-        <v>311.0103700789526</v>
+        <v>303.8470563135669</v>
       </c>
       <c r="D32" t="n">
-        <v>311.0103700789526</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E32" t="n">
-        <v>311.0103700789526</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F32" t="n">
-        <v>164.8738481890109</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G32" t="n">
-        <v>18.73732629906917</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="H32" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="I32" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="J32" t="n">
         <v>11.57401253368339</v>
@@ -6719,31 +6719,31 @@
         <v>578.7006266841693</v>
       </c>
       <c r="Q32" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="R32" t="n">
-        <v>578.7006266841693</v>
+        <v>577.7149874387915</v>
       </c>
       <c r="S32" t="n">
-        <v>578.7006266841693</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="T32" t="n">
-        <v>578.7006266841693</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="U32" t="n">
-        <v>578.7006266841693</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="V32" t="n">
-        <v>578.7006266841693</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="W32" t="n">
-        <v>578.7006266841693</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="X32" t="n">
-        <v>432.5641047942275</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="Y32" t="n">
-        <v>311.0103700789526</v>
+        <v>449.9835782035086</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="C33" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="D33" t="n">
-        <v>140.2910610143441</v>
+        <v>11.57401253368339</v>
       </c>
       <c r="E33" t="n">
         <v>11.57401253368339</v>
@@ -6789,7 +6789,7 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N33" t="n">
-        <v>386.8913402620005</v>
+        <v>426.5680632441263</v>
       </c>
       <c r="O33" t="n">
         <v>504.0242257254408</v>
@@ -6810,19 +6810,19 @@
         <v>578.7006266841693</v>
       </c>
       <c r="U33" t="n">
-        <v>432.5641047942275</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="V33" t="n">
-        <v>286.4275829042858</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="W33" t="n">
-        <v>140.2910610143441</v>
+        <v>449.9835782035086</v>
       </c>
       <c r="X33" t="n">
-        <v>140.2910610143441</v>
+        <v>303.8470563135669</v>
       </c>
       <c r="Y33" t="n">
-        <v>140.2910610143441</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="C34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="D34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="E34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="F34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="G34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="H34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="I34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="J34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="K34" t="n">
         <v>558.9099007901775</v>
@@ -6892,16 +6892,16 @@
         <v>578.7006266841693</v>
       </c>
       <c r="V34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="W34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="X34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.9099007901775</v>
+        <v>578.7006266841693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.4275829042857</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="C35" t="n">
-        <v>140.291061014344</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="D35" t="n">
-        <v>140.291061014344</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="E35" t="n">
-        <v>140.291061014344</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="F35" t="n">
-        <v>140.291061014344</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="G35" t="n">
-        <v>140.291061014344</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="H35" t="n">
-        <v>140.291061014344</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="I35" t="n">
-        <v>11.57401253368338</v>
+        <v>18.73732629906917</v>
       </c>
       <c r="J35" t="n">
         <v>11.57401253368338</v>
@@ -6956,31 +6956,31 @@
         <v>578.7006266841692</v>
       </c>
       <c r="Q35" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R35" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S35" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T35" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U35" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V35" t="n">
-        <v>578.7006266841692</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="W35" t="n">
-        <v>432.5641047942274</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="X35" t="n">
-        <v>286.4275829042857</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="Y35" t="n">
-        <v>286.4275829042857</v>
+        <v>577.7149874387914</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11.57401253368338</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="C36" t="n">
-        <v>11.57401253368338</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="D36" t="n">
-        <v>11.57401253368338</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="E36" t="n">
-        <v>11.57401253368338</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="F36" t="n">
-        <v>11.57401253368338</v>
+        <v>140.291061014344</v>
       </c>
       <c r="G36" t="n">
         <v>11.57401253368338</v>
@@ -7023,7 +7023,7 @@
         <v>148.9740250987619</v>
       </c>
       <c r="M36" t="n">
-        <v>243.6629351576686</v>
+        <v>283.3396581397944</v>
       </c>
       <c r="N36" t="n">
         <v>386.8913402620004</v>
@@ -7041,25 +7041,25 @@
         <v>578.7006266841692</v>
       </c>
       <c r="S36" t="n">
-        <v>578.7006266841692</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="T36" t="n">
-        <v>578.7006266841692</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="U36" t="n">
-        <v>449.9835782035085</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="V36" t="n">
-        <v>303.8470563135668</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="W36" t="n">
-        <v>303.8470563135668</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="X36" t="n">
-        <v>157.7105344236251</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.7105344236251</v>
+        <v>286.4275829042857</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="E37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="F37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="G37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="H37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="I37" t="n">
         <v>558.9099007901774</v>
@@ -7132,13 +7132,13 @@
         <v>578.7006266841692</v>
       </c>
       <c r="W37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.9099007901774</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>577.7149874387912</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="C38" t="n">
-        <v>577.7149874387912</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="D38" t="n">
-        <v>577.7149874387912</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E38" t="n">
-        <v>431.5784655488495</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F38" t="n">
-        <v>285.4419436589078</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G38" t="n">
-        <v>139.3054217689661</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H38" t="n">
-        <v>139.3054217689661</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I38" t="n">
         <v>11.57401253368338</v>
@@ -7175,49 +7175,49 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K38" t="n">
-        <v>51.79022575657168</v>
+        <v>51.79022575657166</v>
       </c>
       <c r="L38" t="n">
         <v>138.5837562783352</v>
       </c>
       <c r="M38" t="n">
-        <v>266.8277197508551</v>
+        <v>266.827719750855</v>
       </c>
       <c r="N38" t="n">
-        <v>401.7606130061289</v>
+        <v>401.760613006129</v>
       </c>
       <c r="O38" t="n">
-        <v>515.8386566132574</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P38" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y38" t="n">
-        <v>577.7149874387912</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C39" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D39" t="n">
-        <v>11.57401253368338</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="E39" t="n">
-        <v>11.57401253368338</v>
+        <v>295.3336692569247</v>
       </c>
       <c r="F39" t="n">
-        <v>11.57401253368338</v>
+        <v>149.197147366983</v>
       </c>
       <c r="G39" t="n">
         <v>11.57401253368338</v>
@@ -7254,7 +7254,7 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K39" t="n">
-        <v>50.41925783498758</v>
+        <v>50.41925783498759</v>
       </c>
       <c r="L39" t="n">
         <v>148.9740250987619</v>
@@ -7263,40 +7263,40 @@
         <v>283.3396581397944</v>
       </c>
       <c r="N39" t="n">
-        <v>386.8913402620003</v>
+        <v>386.8913402620004</v>
       </c>
       <c r="O39" t="n">
-        <v>504.0242257254406</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P39" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q39" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R39" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S39" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T39" t="n">
-        <v>578.700626684169</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U39" t="n">
-        <v>449.9835782035085</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V39" t="n">
-        <v>303.8470563135668</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W39" t="n">
-        <v>157.7105344236251</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X39" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="C40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="D40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="E40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="F40" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="G40" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="H40" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="I40" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="J40" t="n">
-        <v>11.57401253368338</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="K40" t="n">
-        <v>11.57401253368338</v>
+        <v>558.9099007901774</v>
       </c>
       <c r="L40" t="n">
-        <v>13.35570305153745</v>
+        <v>560.6915913080314</v>
       </c>
       <c r="M40" t="n">
-        <v>18.49252890534891</v>
+        <v>565.8284171618429</v>
       </c>
       <c r="N40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="O40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="P40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="X40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.36473842767509</v>
+        <v>578.7006266841692</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.4419436589079</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C41" t="n">
-        <v>285.4419436589079</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D41" t="n">
-        <v>285.4419436589079</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E41" t="n">
-        <v>285.4419436589079</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F41" t="n">
-        <v>285.4419436589079</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G41" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H41" t="n">
         <v>11.57401253368338</v>
@@ -7436,25 +7436,25 @@
         <v>577.7149874387914</v>
       </c>
       <c r="S41" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="T41" t="n">
-        <v>577.7149874387914</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="U41" t="n">
-        <v>577.7149874387914</v>
+        <v>285.4419436589079</v>
       </c>
       <c r="V41" t="n">
-        <v>577.7149874387914</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="W41" t="n">
-        <v>431.5784655488496</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="X41" t="n">
-        <v>285.4419436589079</v>
+        <v>139.3054217689662</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.4419436589079</v>
+        <v>139.3054217689662</v>
       </c>
     </row>
     <row r="42">
@@ -7467,25 +7467,25 @@
         <v>61.91402896329873</v>
       </c>
       <c r="C42" t="n">
-        <v>35.04035861265887</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="D42" t="n">
-        <v>35.04035861265887</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="E42" t="n">
-        <v>35.04035861265887</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="F42" t="n">
-        <v>35.04035861265887</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="G42" t="n">
-        <v>35.04035861265887</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="H42" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I42" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J42" t="n">
         <v>11.57401253368338</v>
@@ -7515,13 +7515,13 @@
         <v>500.3235946331239</v>
       </c>
       <c r="S42" t="n">
+        <v>500.3235946331239</v>
+      </c>
+      <c r="T42" t="n">
+        <v>500.3235946331239</v>
+      </c>
+      <c r="U42" t="n">
         <v>354.1870727431822</v>
-      </c>
-      <c r="T42" t="n">
-        <v>208.0505508532405</v>
-      </c>
-      <c r="U42" t="n">
-        <v>208.0505508532405</v>
       </c>
       <c r="V42" t="n">
         <v>208.0505508532405</v>
@@ -7530,10 +7530,10 @@
         <v>208.0505508532405</v>
       </c>
       <c r="X42" t="n">
-        <v>208.0505508532405</v>
+        <v>61.91402896329873</v>
       </c>
       <c r="Y42" t="n">
-        <v>208.0505508532405</v>
+        <v>61.91402896329873</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K43" t="n">
-        <v>558.9099007901774</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L43" t="n">
-        <v>560.6915913080314</v>
+        <v>13.35570305153745</v>
       </c>
       <c r="M43" t="n">
-        <v>565.8284171618429</v>
+        <v>18.49252890534892</v>
       </c>
       <c r="N43" t="n">
-        <v>578.7006266841692</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="O43" t="n">
-        <v>578.7006266841692</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="P43" t="n">
-        <v>578.7006266841692</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="Q43" t="n">
-        <v>578.7006266841692</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="R43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="S43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="T43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="U43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="V43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="W43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y43" t="n">
-        <v>578.7006266841692</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.7251935654818</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="C44" t="n">
-        <v>197.7251935654818</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="D44" t="n">
-        <v>197.7251935654818</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="E44" t="n">
-        <v>197.7251935654818</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F44" t="n">
-        <v>164.8738481890109</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G44" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H44" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I44" t="n">
-        <v>18.73732629906917</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J44" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K44" t="n">
-        <v>51.79022575657169</v>
+        <v>51.7902257565716</v>
       </c>
       <c r="L44" t="n">
-        <v>138.5837562783352</v>
+        <v>138.5837562783351</v>
       </c>
       <c r="M44" t="n">
-        <v>266.8277197508551</v>
+        <v>266.827719750855</v>
       </c>
       <c r="N44" t="n">
         <v>401.760613006129</v>
@@ -7670,28 +7670,28 @@
         <v>577.7149874387914</v>
       </c>
       <c r="R44" t="n">
-        <v>489.9982373453652</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S44" t="n">
-        <v>489.9982373453652</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T44" t="n">
-        <v>489.9982373453652</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U44" t="n">
-        <v>343.8617154554235</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V44" t="n">
-        <v>343.8617154554235</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="W44" t="n">
-        <v>197.7251935654818</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="X44" t="n">
-        <v>197.7251935654818</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="Y44" t="n">
-        <v>197.7251935654818</v>
+        <v>431.5784655488496</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>432.5641047942274</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C45" t="n">
-        <v>432.5641047942274</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D45" t="n">
-        <v>432.5641047942274</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E45" t="n">
-        <v>421.4711918662384</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F45" t="n">
-        <v>275.3346699762967</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G45" t="n">
-        <v>137.7115351429971</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H45" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I45" t="n">
-        <v>35.04035861265887</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J45" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K45" t="n">
-        <v>11.57401253368338</v>
+        <v>50.41925783498759</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1287797974577</v>
+        <v>148.9740250987619</v>
       </c>
       <c r="M45" t="n">
-        <v>244.4944128384902</v>
+        <v>243.6629351576686</v>
       </c>
       <c r="N45" t="n">
         <v>386.8913402620004</v>
@@ -7767,10 +7767,10 @@
         <v>432.5641047942274</v>
       </c>
       <c r="X45" t="n">
-        <v>432.5641047942274</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="Y45" t="n">
-        <v>432.5641047942274</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="46">
@@ -7819,28 +7819,28 @@
         <v>31.3647384276751</v>
       </c>
       <c r="O46" t="n">
-        <v>22.7701868551147</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="P46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="R46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="S46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="T46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="U46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="V46" t="n">
-        <v>11.57401253368338</v>
+        <v>31.3647384276751</v>
       </c>
       <c r="W46" t="n">
         <v>11.57401253368338</v>
@@ -23036,16 +23036,16 @@
         <v>413.707320657778</v>
       </c>
       <c r="H8" t="n">
-        <v>273.3407321982345</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I8" t="n">
-        <v>99.17357415002326</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K8" t="n">
-        <v>11.14047377036554</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23060,22 +23060,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>50.01861771953256</v>
       </c>
       <c r="R8" t="n">
-        <v>115.3674336481769</v>
+        <v>65.57242662105217</v>
       </c>
       <c r="S8" t="n">
-        <v>172.6645079492214</v>
+        <v>122.8695009220967</v>
       </c>
       <c r="T8" t="n">
-        <v>216.1119122710508</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2180195592479</v>
+        <v>251.1798207474656</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>95.2742053662592</v>
       </c>
       <c r="G9" t="n">
-        <v>89.02439173598114</v>
+        <v>86.6948868618878</v>
       </c>
       <c r="H9" t="n">
         <v>54.19623348224739</v>
       </c>
       <c r="I9" t="n">
-        <v>20.33727340070163</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.34701680106488</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>92.6799817290989</v>
@@ -23273,13 +23273,13 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H11" t="n">
-        <v>272.7467658931187</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>91.84554212561662</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.64046216220325</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T11" t="n">
-        <v>69.44872435019249</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1816877488572</v>
+        <v>106.5065310778149</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>183.0771017990926</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>63.75410343207395</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3940557223416477</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.59326173053483</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.3140530013673</v>
+        <v>6.638896330325053</v>
       </c>
       <c r="T12" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8692364442482</v>
+        <v>81.19407977320594</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>206.1956535022918</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23437,10 +23437,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J13" t="n">
-        <v>61.99638167634127</v>
+        <v>61.99638167634126</v>
       </c>
       <c r="K13" t="n">
-        <v>22.19986892380261</v>
+        <v>11.1156563455856</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>15.45088610797821</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q13" t="n">
         <v>74.52079753307214</v>
@@ -23510,10 +23510,10 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H14" t="n">
-        <v>272.7467658931185</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>97.96143990042454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.64046216220322</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T14" t="n">
-        <v>69.44872435019246</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1816877488572</v>
+        <v>106.5065310778149</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23577,25 +23577,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>2.769908893596465</v>
       </c>
       <c r="E15" t="n">
-        <v>40.5224208138882</v>
+        <v>12.96992378435866</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3940557223416192</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>8.817025489112638</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J15" t="n">
-        <v>23.23168261818574</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.59326173053483</v>
+        <v>77.59326173053482</v>
       </c>
       <c r="S15" t="n">
         <v>151.3140530013673</v>
@@ -23674,10 +23674,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J16" t="n">
-        <v>61.99638167634127</v>
+        <v>61.99638167634126</v>
       </c>
       <c r="K16" t="n">
-        <v>2.607050288750873</v>
+        <v>11.1156563455856</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23689,10 +23689,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>26.53509868619516</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q16" t="n">
         <v>74.52079753307214</v>
@@ -23747,10 +23747,10 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H17" t="n">
-        <v>272.7467658931184</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>98.93722275334844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.64046216220322</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T17" t="n">
-        <v>69.44872435019246</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1816877488572</v>
+        <v>106.5065310778149</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23814,25 +23814,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>11.5869343827091</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>12.96992378435866</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G18" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I18" t="n">
         <v>61.76616344642424</v>
       </c>
       <c r="J18" t="n">
-        <v>23.23168261818574</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.80784849971576</v>
+        <v>77.59326173053482</v>
       </c>
       <c r="S18" t="n">
-        <v>6.638896330325082</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T18" t="n">
-        <v>51.06944934699769</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U18" t="n">
-        <v>81.19407977320597</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>147.6540024635761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,10 +23911,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J19" t="n">
-        <v>61.99638167634127</v>
+        <v>61.99638167634126</v>
       </c>
       <c r="K19" t="n">
-        <v>22.19986892380261</v>
+        <v>22.1998689238026</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,7 +23929,7 @@
         <v>8.508606056834793</v>
       </c>
       <c r="P19" t="n">
-        <v>26.53509868619516</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q19" t="n">
         <v>74.52079753307214</v>
@@ -23938,7 +23938,7 @@
         <v>135.9554396389582</v>
       </c>
       <c r="S19" t="n">
-        <v>207.9945896499623</v>
+        <v>188.4017710149105</v>
       </c>
       <c r="T19" t="n">
         <v>224.0173974919776</v>
@@ -23969,25 +23969,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>220.5977350999652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>314.0927462173208</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>267.2068486037938</v>
       </c>
       <c r="G20" t="n">
-        <v>413.2531730278943</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H20" t="n">
         <v>318.4846998108122</v>
       </c>
       <c r="I20" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>7.091680627731932</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S20" t="n">
-        <v>162.3156188332455</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T20" t="n">
-        <v>69.44872435019241</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U20" t="n">
-        <v>106.5065310778149</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.85802697882502</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>8.817025489112552</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H21" t="n">
         <v>101.6444647650348</v>
@@ -24096,19 +24096,19 @@
         <v>77.59326173053482</v>
       </c>
       <c r="S21" t="n">
-        <v>151.3140530013673</v>
+        <v>23.8841750055133</v>
       </c>
       <c r="T21" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U21" t="n">
-        <v>81.19407977320591</v>
+        <v>81.19407977320594</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W21" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24181,13 +24181,13 @@
         <v>224.0173974919776</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2688822253891</v>
+        <v>266.6760635903373</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>266.9301797015392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>220.5977350999652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2531730278943</v>
+        <v>285.8232950320402</v>
       </c>
       <c r="H23" t="n">
-        <v>177.8397198199706</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J23" t="n">
         <v>7.091680627731932</v>
@@ -24260,10 +24260,10 @@
         <v>214.1238810212347</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1816877488572</v>
+        <v>106.5065310778149</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>183.0771017990926</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.85802697882502</v>
+        <v>39.10330565401333</v>
       </c>
       <c r="C24" t="n">
-        <v>28.03334231727342</v>
+        <v>28.03334231727345</v>
       </c>
       <c r="D24" t="n">
-        <v>97.60844929931952</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.59326173053482</v>
       </c>
       <c r="S24" t="n">
-        <v>6.638896330325025</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T24" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U24" t="n">
         <v>225.8692364442482</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24412,7 +24412,7 @@
         <v>135.9554396389582</v>
       </c>
       <c r="S25" t="n">
-        <v>188.4017710149105</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T25" t="n">
         <v>224.0173974919776</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>266.9301797015392</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24458,10 +24458,10 @@
         <v>413.2531730278943</v>
       </c>
       <c r="H26" t="n">
-        <v>318.4846998108122</v>
+        <v>191.0548218149581</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J26" t="n">
         <v>7.091680627731932</v>
@@ -24488,28 +24488,28 @@
         <v>0.9757828529239703</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S26" t="n">
-        <v>17.64046216220316</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T26" t="n">
-        <v>160.318483622885</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U26" t="n">
         <v>251.1816877488572</v>
       </c>
       <c r="V26" t="n">
-        <v>183.0771017990926</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463707</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>225.0559440074267</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>241.5627819850113</v>
       </c>
     </row>
     <row r="27">
@@ -24528,16 +24528,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>12.96992378435866</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G27" t="n">
         <v>136.2469034849667</v>
       </c>
       <c r="H27" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>61.76616344642424</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.59326173053482</v>
+        <v>51.80784849971564</v>
       </c>
       <c r="S27" t="n">
-        <v>23.8841750055133</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T27" t="n">
-        <v>51.06944934699763</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U27" t="n">
-        <v>81.19407977320591</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V27" t="n">
-        <v>88.12543047838295</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>266.9301797015392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>198.991834717043</v>
       </c>
     </row>
     <row r="29">
@@ -24692,16 +24692,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2531730278943</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H29" t="n">
         <v>318.4846998108122</v>
       </c>
       <c r="I29" t="n">
-        <v>131.4600546760547</v>
+        <v>97.96143990042459</v>
       </c>
       <c r="J29" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9757828529239703</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R29" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>17.64046216220316</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T29" t="n">
         <v>214.1238810212347</v>
@@ -24737,13 +24737,13 @@
         <v>251.1816877488572</v>
       </c>
       <c r="V29" t="n">
-        <v>200.3223804742809</v>
+        <v>183.0771017990926</v>
       </c>
       <c r="W29" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24768,16 +24768,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G30" t="n">
-        <v>136.2469034849667</v>
+        <v>128.37744137825</v>
       </c>
       <c r="H30" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.16122979929072</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>6.638896330325025</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T30" t="n">
-        <v>51.06944934699763</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U30" t="n">
-        <v>81.19407977320591</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>61.09782853243519</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24859,10 +24859,10 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J31" t="n">
-        <v>61.99638167634126</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K31" t="n">
-        <v>22.1998689238026</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24874,10 +24874,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>26.53509868619514</v>
+        <v>15.45088610797821</v>
       </c>
       <c r="Q31" t="n">
         <v>74.52079753307214</v>
@@ -24889,7 +24889,7 @@
         <v>207.9945896499623</v>
       </c>
       <c r="T31" t="n">
-        <v>204.4245788569258</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U31" t="n">
         <v>286.2688822253891</v>
@@ -24917,28 +24917,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>220.5977350999652</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496406</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>262.2008890706691</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>268.5780163568519</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H32" t="n">
-        <v>318.4846998108122</v>
+        <v>173.8095431397699</v>
       </c>
       <c r="I32" t="n">
         <v>131.4600546760547</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>86.83958259249187</v>
       </c>
       <c r="S32" t="n">
-        <v>162.3156188332455</v>
+        <v>35.86152369031547</v>
       </c>
       <c r="T32" t="n">
         <v>214.1238810212347</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>265.8997412879314</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>21.85802697882502</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>30.21520245954684</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25050,19 +25050,19 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U33" t="n">
-        <v>81.19407977320591</v>
+        <v>98.43935844839419</v>
       </c>
       <c r="V33" t="n">
-        <v>88.12543047838295</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>61.09782853243516</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>61.00753910626204</v>
       </c>
     </row>
     <row r="34">
@@ -25099,7 +25099,7 @@
         <v>61.99638167634126</v>
       </c>
       <c r="K34" t="n">
-        <v>22.1998689238026</v>
+        <v>2.607050288750766</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>286.2688822253891</v>
       </c>
       <c r="V34" t="n">
-        <v>232.5448246887762</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>238.0586849924383</v>
       </c>
       <c r="C35" t="n">
         <v>220.5977350999653</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25172,10 +25172,10 @@
         <v>318.4846998108122</v>
       </c>
       <c r="I35" t="n">
-        <v>4.030176680200725</v>
+        <v>12.09764016085668</v>
       </c>
       <c r="J35" t="n">
-        <v>7.091680627731932</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9757828529239703</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>86.83958259249187</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.85802697882505</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,10 +25242,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G36" t="n">
-        <v>136.2469034849667</v>
+        <v>8.817025489112638</v>
       </c>
       <c r="H36" t="n">
         <v>101.6444647650348</v>
@@ -25281,22 +25281,22 @@
         <v>77.59326173053482</v>
       </c>
       <c r="S36" t="n">
-        <v>151.3140530013673</v>
+        <v>6.638896330325053</v>
       </c>
       <c r="T36" t="n">
-        <v>195.7446060180399</v>
+        <v>51.06944934699766</v>
       </c>
       <c r="U36" t="n">
-        <v>98.43935844839419</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V36" t="n">
-        <v>88.12543047838298</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>61.09782853243519</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,7 +25330,7 @@
         <v>154.0531901378539</v>
       </c>
       <c r="I37" t="n">
-        <v>127.8026899798254</v>
+        <v>108.2098713447736</v>
       </c>
       <c r="J37" t="n">
         <v>61.99638167634126</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>266.9301797015391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>255.3039636676265</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>220.5977350999653</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496407</v>
       </c>
       <c r="E38" t="n">
-        <v>237.2552134012195</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>262.2008890706692</v>
       </c>
       <c r="G38" t="n">
-        <v>268.578016356852</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H38" t="n">
         <v>318.4846998108122</v>
       </c>
       <c r="I38" t="n">
-        <v>5.005959533124852</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J38" t="n">
         <v>7.091680627731932</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R38" t="n">
         <v>86.83958259249187</v>
@@ -25473,16 +25473,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>2.769908893596465</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>21.78694927347129</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G39" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>101.6444647650348</v>
@@ -25524,16 +25524,16 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U39" t="n">
-        <v>98.4393584483943</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V39" t="n">
-        <v>88.12543047838301</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>61.09782853243522</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>125.8282293878794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.07161528826</v>
@@ -25573,7 +25573,7 @@
         <v>61.99638167634126</v>
       </c>
       <c r="K40" t="n">
-        <v>22.1998689238026</v>
+        <v>2.607050288750766</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>256.2797465205506</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,10 +25640,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>286.7990778849643</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H41" t="n">
-        <v>173.8095431397699</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I41" t="n">
         <v>131.4600546760547</v>
@@ -25676,22 +25676,22 @@
         <v>86.83958259249187</v>
       </c>
       <c r="S41" t="n">
-        <v>162.3156188332455</v>
+        <v>17.64046216220319</v>
       </c>
       <c r="T41" t="n">
-        <v>214.1238810212347</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U41" t="n">
         <v>251.1816877488572</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>183.0771017990926</v>
       </c>
       <c r="W41" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>225.0559440074267</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.85802697882505</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>146.1035653411823</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,13 +25722,13 @@
         <v>136.2469034849667</v>
       </c>
       <c r="H42" t="n">
-        <v>101.6444647650348</v>
+        <v>51.80784849971564</v>
       </c>
       <c r="I42" t="n">
         <v>61.76616344642424</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25755,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>6.638896330325053</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T42" t="n">
-        <v>51.06944934699766</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8692364442482</v>
+        <v>81.19407977320594</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>61.09782853243519</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25810,7 +25810,7 @@
         <v>61.99638167634126</v>
       </c>
       <c r="K43" t="n">
-        <v>2.607050288750766</v>
+        <v>22.1998689238026</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>74.52079753307214</v>
       </c>
       <c r="R43" t="n">
-        <v>135.9554396389582</v>
+        <v>116.3626210039064</v>
       </c>
       <c r="S43" t="n">
         <v>207.9945896499623</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>256.2797465205506</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F44" t="n">
-        <v>374.3532138190052</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G44" t="n">
-        <v>268.578016356852</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H44" t="n">
         <v>318.4846998108122</v>
@@ -25886,7 +25886,7 @@
         <v>131.4600546760547</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S44" t="n">
         <v>162.3156188332455</v>
@@ -25919,19 +25919,19 @@
         <v>214.1238810212347</v>
       </c>
       <c r="U44" t="n">
-        <v>106.5065310778149</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>204.5658120463707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>241.5627819850113</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>21.85802697882505</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,22 +25950,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>146.6630966566918</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3940557223415908</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I45" t="n">
         <v>61.76616344642424</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26007,10 +26007,10 @@
         <v>107.0198264898773</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>78.34310720762343</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>61.00753910626207</v>
       </c>
     </row>
     <row r="46">
@@ -26059,10 +26059,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P46" t="n">
-        <v>15.45088610797814</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q46" t="n">
         <v>74.52079753307214</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>266.9301797015392</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>326179.103869217</v>
+        <v>326179.1038692167</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423512.4112427345</v>
+        <v>423512.4112427344</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423512.4112427344</v>
+        <v>423512.4112427345</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423512.4112427344</v>
+        <v>423512.4112427345</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423512.4112427344</v>
+        <v>423512.4112427345</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423512.4112427344</v>
+        <v>423512.4112427345</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>72635.81175366872</v>
       </c>
       <c r="C2" t="n">
-        <v>72635.81175366872</v>
+        <v>72635.81175366874</v>
       </c>
       <c r="D2" t="n">
         <v>88957.93741887718</v>
@@ -26335,10 +26335,10 @@
         <v>115503.384884382</v>
       </c>
       <c r="J2" t="n">
-        <v>115503.384884382</v>
+        <v>115503.3848843819</v>
       </c>
       <c r="K2" t="n">
-        <v>115503.384884382</v>
+        <v>115503.3848843819</v>
       </c>
       <c r="L2" t="n">
         <v>115503.384884382</v>
@@ -26353,7 +26353,7 @@
         <v>115503.3848843819</v>
       </c>
       <c r="P2" t="n">
-        <v>115503.384884382</v>
+        <v>115503.3848843819</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>75880.73575255743</v>
       </c>
       <c r="E3" t="n">
-        <v>119088.9379328904</v>
+        <v>119088.9379328905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12602.66812350201</v>
+        <v>12602.66812350202</v>
       </c>
       <c r="M3" t="n">
-        <v>23644.51281186282</v>
+        <v>23644.51281186284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26522,46 +26522,46 @@
         <v>-282550.012046735</v>
       </c>
       <c r="C6" t="n">
-        <v>31894.47438786494</v>
+        <v>31894.47438786495</v>
       </c>
       <c r="D6" t="n">
         <v>-32260.4453045648</v>
       </c>
       <c r="E6" t="n">
-        <v>-23601.63055539563</v>
+        <v>-23601.63055539571</v>
       </c>
       <c r="F6" t="n">
-        <v>95487.30737749481</v>
+        <v>95487.30737749476</v>
       </c>
       <c r="G6" t="n">
         <v>95487.30737749477</v>
       </c>
       <c r="H6" t="n">
-        <v>95487.30737749481</v>
+        <v>95487.30737749477</v>
       </c>
       <c r="I6" t="n">
-        <v>95487.30737749478</v>
+        <v>95487.3073774948</v>
       </c>
       <c r="J6" t="n">
-        <v>95487.30737749478</v>
+        <v>95487.30737749471</v>
       </c>
       <c r="K6" t="n">
         <v>95487.30737749476</v>
       </c>
       <c r="L6" t="n">
-        <v>82884.63925399279</v>
+        <v>82884.63925399276</v>
       </c>
       <c r="M6" t="n">
         <v>71842.79456563194</v>
       </c>
       <c r="N6" t="n">
+        <v>95487.30737749471</v>
+      </c>
+      <c r="O6" t="n">
         <v>95487.30737749474</v>
       </c>
-      <c r="O6" t="n">
-        <v>95487.30737749471</v>
-      </c>
       <c r="P6" t="n">
-        <v>95487.30737749477</v>
+        <v>95487.30737749474</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="E3" t="n">
-        <v>509.8291662011503</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="F3" t="n">
-        <v>509.8291662011503</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="G3" t="n">
-        <v>509.8291662011503</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="H3" t="n">
         <v>509.8291662011504</v>
@@ -26762,7 +26762,7 @@
         <v>509.8291662011504</v>
       </c>
       <c r="K3" t="n">
-        <v>509.8291662011504</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="L3" t="n">
         <v>509.8291662011504</v>
@@ -26796,7 +26796,7 @@
         <v>49.79500702712468</v>
       </c>
       <c r="E4" t="n">
-        <v>144.6751566710422</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F4" t="n">
         <v>144.6751566710423</v>
@@ -27018,7 +27018,7 @@
         <v>49.79500702712468</v>
       </c>
       <c r="E4" t="n">
-        <v>94.88014964391755</v>
+        <v>94.8801496439176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>49.79500702712468</v>
+        <v>49.79500702712471</v>
       </c>
       <c r="M4" t="n">
-        <v>94.88014964391752</v>
+        <v>94.88014964391758</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>49.79500702712468</v>
       </c>
       <c r="M4" t="n">
-        <v>94.88014964391755</v>
+        <v>94.8801496439176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31607,10 +31607,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M9" t="n">
-        <v>191.929040949143</v>
+        <v>163.8914845489274</v>
       </c>
       <c r="N9" t="n">
         <v>181.136719110458</v>
@@ -31756,10 +31756,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01583489435116</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9542238989543</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K11" t="n">
         <v>260.7122886438576</v>
@@ -31774,7 +31774,7 @@
         <v>365.708915369595</v>
       </c>
       <c r="O11" t="n">
-        <v>345.3285584995942</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P11" t="n">
         <v>294.7299352208369</v>
@@ -31786,10 +31786,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S11" t="n">
-        <v>46.70445075299986</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T11" t="n">
-        <v>8.971968542896622</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U11" t="n">
         <v>0.1639651589792643</v>
@@ -31838,22 +31838,22 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J12" t="n">
-        <v>103.6059440484809</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K12" t="n">
-        <v>177.0790604908279</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>238.1046497432826</v>
+        <v>237.2647732980082</v>
       </c>
       <c r="M12" t="n">
-        <v>237.7793976178836</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N12" t="n">
-        <v>276.0168687543755</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O12" t="n">
-        <v>260.9122903671113</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P12" t="n">
         <v>209.4051154534499</v>
@@ -31862,10 +31862,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>68.08624223342912</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S12" t="n">
-        <v>20.36911810247047</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T12" t="n">
         <v>4.42012267678167</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H13" t="n">
-        <v>8.17398236958566</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I13" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J13" t="n">
-        <v>64.99903976305484</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K13" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L13" t="n">
-        <v>136.68436367301</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M13" t="n">
         <v>144.114496931253</v>
@@ -31941,16 +31941,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R13" t="n">
-        <v>41.33795173821129</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S13" t="n">
-        <v>16.02200838700991</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T13" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I14" t="n">
-        <v>79.01583489435116</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J14" t="n">
-        <v>173.9542238989543</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K14" t="n">
         <v>260.7122886438576</v>
@@ -32011,7 +32011,7 @@
         <v>365.708915369595</v>
       </c>
       <c r="O14" t="n">
-        <v>345.3285584995942</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P14" t="n">
         <v>294.7299352208369</v>
@@ -32023,10 +32023,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S14" t="n">
-        <v>46.70445075299986</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T14" t="n">
-        <v>8.971968542896622</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U14" t="n">
         <v>0.1639651589792643</v>
@@ -32075,7 +32075,7 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J15" t="n">
-        <v>103.6059440484809</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K15" t="n">
         <v>177.0790604908279</v>
@@ -32087,22 +32087,22 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N15" t="n">
-        <v>235.9393707926324</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O15" t="n">
-        <v>260.9122903671113</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P15" t="n">
-        <v>209.4051154534499</v>
+        <v>169.3276174917066</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>68.08624223342912</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S15" t="n">
-        <v>20.36911810247047</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T15" t="n">
         <v>4.42012267678167</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H16" t="n">
-        <v>8.17398236958566</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I16" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J16" t="n">
-        <v>64.99903976305484</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K16" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L16" t="n">
-        <v>136.68436367301</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M16" t="n">
         <v>144.114496931253</v>
@@ -32178,16 +32178,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R16" t="n">
-        <v>41.33795173821129</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S16" t="n">
-        <v>16.02200838700991</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T16" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I17" t="n">
-        <v>79.01583489435116</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J17" t="n">
-        <v>173.9542238989543</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K17" t="n">
         <v>260.7122886438576</v>
@@ -32248,10 +32248,10 @@
         <v>365.708915369595</v>
       </c>
       <c r="O17" t="n">
-        <v>345.3285584995942</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P17" t="n">
-        <v>294.7299352208368</v>
+        <v>294.7299352208369</v>
       </c>
       <c r="Q17" t="n">
         <v>221.3299070215255</v>
@@ -32260,10 +32260,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S17" t="n">
-        <v>46.70445075299986</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T17" t="n">
-        <v>8.971968542896622</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U17" t="n">
         <v>0.1639651589792643</v>
@@ -32312,7 +32312,7 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J18" t="n">
-        <v>103.6059440484809</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K18" t="n">
         <v>177.0790604908279</v>
@@ -32321,13 +32321,13 @@
         <v>238.1046497432826</v>
       </c>
       <c r="M18" t="n">
-        <v>237.7793976178837</v>
+        <v>237.7793976178836</v>
       </c>
       <c r="N18" t="n">
-        <v>276.0168687543755</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O18" t="n">
-        <v>260.9122903671113</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P18" t="n">
         <v>209.4051154534499</v>
@@ -32336,10 +32336,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>68.08624223342912</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S18" t="n">
-        <v>20.36911810247047</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T18" t="n">
         <v>4.42012267678167</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H19" t="n">
-        <v>8.17398236958566</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I19" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J19" t="n">
-        <v>64.99903976305484</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K19" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L19" t="n">
-        <v>136.68436367301</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M19" t="n">
         <v>144.114496931253</v>
@@ -32415,16 +32415,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R19" t="n">
-        <v>41.33795173821129</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S19" t="n">
-        <v>16.02200838700991</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T19" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,16 +32558,16 @@
         <v>238.1046497432826</v>
       </c>
       <c r="M21" t="n">
-        <v>237.7793976178837</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N21" t="n">
-        <v>276.0168687543757</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O21" t="n">
         <v>260.9122903671114</v>
       </c>
       <c r="P21" t="n">
-        <v>209.4051154534499</v>
+        <v>169.3276174917066</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32798,7 +32798,7 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N24" t="n">
-        <v>235.9393707926325</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O24" t="n">
         <v>260.9122903671114</v>
@@ -33035,7 +33035,7 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N27" t="n">
-        <v>235.9393707926325</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O27" t="n">
         <v>260.9122903671114</v>
@@ -33178,10 +33178,10 @@
         <v>20.99010230495489</v>
       </c>
       <c r="I29" t="n">
-        <v>79.01583489435117</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J29" t="n">
-        <v>173.9542238989544</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K29" t="n">
         <v>260.7122886438576</v>
@@ -33196,10 +33196,10 @@
         <v>365.708915369595</v>
       </c>
       <c r="O29" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P29" t="n">
-        <v>294.7299352208369</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q29" t="n">
         <v>221.3299070215255</v>
@@ -33208,10 +33208,10 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S29" t="n">
-        <v>46.70445075299987</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T29" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U29" t="n">
         <v>0.1639651589792643</v>
@@ -33260,7 +33260,7 @@
         <v>37.75621655357576</v>
       </c>
       <c r="J30" t="n">
-        <v>103.605944048481</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K30" t="n">
         <v>177.0790604908279</v>
@@ -33272,10 +33272,10 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N30" t="n">
-        <v>235.9393707926325</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O30" t="n">
-        <v>260.9122903671114</v>
+        <v>220.8347924053682</v>
       </c>
       <c r="P30" t="n">
         <v>209.4051154534499</v>
@@ -33284,10 +33284,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S30" t="n">
-        <v>20.36911810247048</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T30" t="n">
         <v>4.42012267678167</v>
@@ -33330,22 +33330,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9193640701987956</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H31" t="n">
-        <v>8.173982369585662</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I31" t="n">
         <v>27.64778494743288</v>
       </c>
       <c r="J31" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K31" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L31" t="n">
-        <v>136.6843636730101</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M31" t="n">
         <v>144.114496931253</v>
@@ -33363,16 +33363,16 @@
         <v>76.9842040963737</v>
       </c>
       <c r="R31" t="n">
-        <v>41.3379517382113</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S31" t="n">
-        <v>16.02200838700992</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T31" t="n">
         <v>3.928191936303944</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05014713110175255</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33509,10 +33509,10 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N33" t="n">
-        <v>235.9393707926325</v>
+        <v>276.0168687543757</v>
       </c>
       <c r="O33" t="n">
-        <v>260.9122903671114</v>
+        <v>220.8347924053682</v>
       </c>
       <c r="P33" t="n">
         <v>209.4051154534499</v>
@@ -33743,10 +33743,10 @@
         <v>238.1046497432826</v>
       </c>
       <c r="M36" t="n">
-        <v>237.7793976178836</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N36" t="n">
-        <v>276.0168687543756</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O36" t="n">
         <v>260.9122903671114</v>
@@ -33904,7 +33904,7 @@
         <v>359.8855902702221</v>
       </c>
       <c r="N38" t="n">
-        <v>365.7089153695948</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O38" t="n">
         <v>345.3285584995943</v>
@@ -33983,7 +33983,7 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N39" t="n">
-        <v>235.9393707926322</v>
+        <v>235.9393707926324</v>
       </c>
       <c r="O39" t="n">
         <v>260.9122903671114</v>
@@ -34369,7 +34369,7 @@
         <v>173.9542238989544</v>
       </c>
       <c r="K44" t="n">
-        <v>260.7122886438576</v>
+        <v>260.7122886438575</v>
       </c>
       <c r="L44" t="n">
         <v>323.4366478202534</v>
@@ -34378,7 +34378,7 @@
         <v>359.8855902702221</v>
       </c>
       <c r="N44" t="n">
-        <v>365.7089153695949</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O44" t="n">
         <v>345.3285584995943</v>
@@ -34448,16 +34448,16 @@
         <v>103.605944048481</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L45" t="n">
         <v>238.1046497432826</v>
       </c>
       <c r="M45" t="n">
-        <v>277.8568955796269</v>
+        <v>237.7793976178836</v>
       </c>
       <c r="N45" t="n">
-        <v>275.1769923091013</v>
+        <v>276.0168687543756</v>
       </c>
       <c r="O45" t="n">
         <v>260.9122903671114</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>18.75288921105134</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M9" t="n">
-        <v>49.79500702712468</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="N9" t="n">
         <v>49.79500702712468</v>
@@ -35422,7 +35422,7 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O11" t="n">
-        <v>115.2303470779075</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P11" t="n">
         <v>63.49693946556732</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.23762151646886</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>99.55026996340837</v>
+        <v>98.71039351813403</v>
       </c>
       <c r="M12" t="n">
-        <v>95.64536369586526</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N12" t="n">
-        <v>144.6751566710422</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O12" t="n">
         <v>118.3160459226669</v>
@@ -35571,13 +35571,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.799687391771755</v>
+        <v>1.799687391771783</v>
       </c>
       <c r="M13" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N13" t="n">
-        <v>13.00223184073349</v>
+        <v>13.00223184073351</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O14" t="n">
-        <v>115.2303470779075</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P14" t="n">
         <v>63.49693946556732</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.23762151646886</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L15" t="n">
-        <v>99.55026996340837</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M15" t="n">
         <v>135.7228616576086</v>
       </c>
       <c r="N15" t="n">
-        <v>104.597658709299</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O15" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P15" t="n">
-        <v>75.43070803911962</v>
+        <v>35.35321007737635</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35808,13 +35808,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.799687391771755</v>
+        <v>1.799687391771783</v>
       </c>
       <c r="M16" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N16" t="n">
-        <v>13.00223184073349</v>
+        <v>13.00223184073351</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O17" t="n">
-        <v>115.2303470779075</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P17" t="n">
-        <v>63.49693946556727</v>
+        <v>63.49693946556732</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.23762151646886</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L18" t="n">
-        <v>99.55026996340837</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M18" t="n">
-        <v>95.64536369586534</v>
+        <v>95.64536369586531</v>
       </c>
       <c r="N18" t="n">
         <v>144.6751566710423</v>
@@ -36045,13 +36045,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.799687391771755</v>
+        <v>1.799687391771783</v>
       </c>
       <c r="M19" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N19" t="n">
-        <v>13.00223184073349</v>
+        <v>13.00223184073351</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>99.5502699634084</v>
       </c>
       <c r="M21" t="n">
-        <v>95.6453636958654</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N21" t="n">
         <v>144.6751566710423</v>
@@ -36215,7 +36215,7 @@
         <v>118.3160459226669</v>
       </c>
       <c r="P21" t="n">
-        <v>75.43070803911962</v>
+        <v>35.35321007737635</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N24" t="n">
-        <v>104.5976587092992</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O24" t="n">
         <v>118.3160459226669</v>
@@ -36683,7 +36683,7 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N27" t="n">
-        <v>104.5976587092992</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O27" t="n">
         <v>118.3160459226669</v>
@@ -36844,10 +36844,10 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O29" t="n">
-        <v>115.2303470779076</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P29" t="n">
-        <v>63.49693946556732</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.23762151646889</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L30" t="n">
-        <v>99.5502699634084</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M30" t="n">
         <v>135.7228616576086</v>
       </c>
       <c r="N30" t="n">
-        <v>104.5976587092992</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O30" t="n">
-        <v>118.3160459226669</v>
+        <v>78.23854796092378</v>
       </c>
       <c r="P30" t="n">
         <v>75.43070803911962</v>
@@ -36993,13 +36993,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.799687391771783</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M31" t="n">
         <v>5.188712983647946</v>
       </c>
       <c r="N31" t="n">
-        <v>13.00223184073351</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N33" t="n">
-        <v>104.5976587092992</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O33" t="n">
-        <v>118.3160459226669</v>
+        <v>78.23854796092378</v>
       </c>
       <c r="P33" t="n">
         <v>75.43070803911962</v>
@@ -37391,10 +37391,10 @@
         <v>99.5502699634084</v>
       </c>
       <c r="M36" t="n">
-        <v>95.64536369586531</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N36" t="n">
-        <v>144.6751566710423</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O36" t="n">
         <v>118.3160459226669</v>
@@ -37552,7 +37552,7 @@
         <v>129.5393570429493</v>
       </c>
       <c r="N38" t="n">
-        <v>136.2958517730039</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O38" t="n">
         <v>115.2303470779076</v>
@@ -37631,7 +37631,7 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N39" t="n">
-        <v>104.5976587092989</v>
+        <v>104.597658709299</v>
       </c>
       <c r="O39" t="n">
         <v>118.3160459226669</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>40.62243759887707</v>
+        <v>40.62243759887699</v>
       </c>
       <c r="L44" t="n">
         <v>87.67023285026619</v>
@@ -38026,7 +38026,7 @@
         <v>129.5393570429493</v>
       </c>
       <c r="N44" t="n">
-        <v>136.295851773004</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O44" t="n">
         <v>115.2303470779076</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L45" t="n">
         <v>99.5502699634084</v>
       </c>
       <c r="M45" t="n">
-        <v>135.7228616576086</v>
+        <v>95.64536369586531</v>
       </c>
       <c r="N45" t="n">
-        <v>143.8352802257679</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O45" t="n">
         <v>118.3160459226669</v>
